--- a/ESL_System/Resource/ESL課程班級取前N名(樣板).xlsx
+++ b/ESL_System/Resource/ESL課程班級取前N名(樣板).xlsx
@@ -123,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -183,11 +183,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -206,40 +243,45 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -546,54 +588,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:AJ3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="U1" sqref="U1"/>
+      <selection pane="bottomLeft" activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" customWidth="1"/>
     <col min="5" max="5" width="6.140625" customWidth="1"/>
     <col min="6" max="7" width="5.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="10" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" customWidth="1"/>
-    <col min="13" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" customWidth="1"/>
-    <col min="16" max="16" width="0.140625" customWidth="1"/>
-    <col min="17" max="20" width="8" customWidth="1"/>
-    <col min="21" max="21" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="7" customWidth="1"/>
+    <col min="9" max="10" width="16.140625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="7" customWidth="1"/>
+    <col min="13" max="14" width="8" style="7" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" customWidth="1"/>
+    <col min="17" max="18" width="8" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="11" t="s">
+    <row r="1" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="12" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
     </row>
-    <row r="2" spans="1:20" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -615,43 +654,41 @@
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="2" t="s">
+      <c r="L2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="M2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="N2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="14"/>
+      <c r="O2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="Q2" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -659,29 +696,40 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="O3:P3"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/ESL_System/Resource/ESL課程班級取前N名(樣板).xlsx
+++ b/ESL_System/Resource/ESL課程班級取前N名(樣板).xlsx
@@ -263,6 +263,18 @@
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
@@ -270,18 +282,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -592,7 +592,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="S16" sqref="S16"/>
+      <selection pane="bottomLeft" activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -606,28 +606,25 @@
     <col min="8" max="8" width="16.28515625" style="7" customWidth="1"/>
     <col min="9" max="10" width="16.140625" style="7" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" style="7" customWidth="1"/>
-    <col min="13" max="14" width="8" style="7" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" style="7" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" customWidth="1"/>
-    <col min="17" max="18" width="8" customWidth="1"/>
-    <col min="19" max="19" width="9.85546875" customWidth="1"/>
+    <col min="12" max="15" width="22.42578125" style="7" customWidth="1"/>
+    <col min="16" max="18" width="22.42578125" customWidth="1"/>
+    <col min="19" max="36" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13" t="s">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
       <c r="L1" s="8" t="s">
         <v>1</v>
       </c>
@@ -707,24 +704,24 @@
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/ESL_System/Resource/ESL課程班級取前N名(樣板).xlsx
+++ b/ESL_System/Resource/ESL課程班級取前N名(樣板).xlsx
@@ -123,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -220,11 +220,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -275,6 +301,11 @@
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
@@ -284,6 +315,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -588,11 +620,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:BK3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AK1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="U15" sqref="U15"/>
+      <selection pane="bottomLeft" activeCell="AY3" sqref="AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -611,25 +643,25 @@
     <col min="19" max="36" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16" t="s">
+    <row r="1" spans="1:63" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
       <c r="L1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:63" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -685,7 +717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:63" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -721,7 +753,34 @@
       <c r="AG3" s="13"/>
       <c r="AH3" s="13"/>
       <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="15"/>
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="19"/>
+      <c r="BA3" s="19"/>
+      <c r="BB3" s="19"/>
+      <c r="BC3" s="19"/>
+      <c r="BD3" s="19"/>
+      <c r="BE3" s="19"/>
+      <c r="BF3" s="19"/>
+      <c r="BG3" s="19"/>
+      <c r="BH3" s="19"/>
+      <c r="BI3" s="19"/>
+      <c r="BJ3" s="19"/>
+      <c r="BK3" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
